--- a/ONCHO/Impact Assessments/Guinea Bissau/gw_oncho_202302_prestop_2_participant.xlsx
+++ b/ONCHO/Impact Assessments/Guinea Bissau/gw_oncho_202302_prestop_2_participant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\ONCHO\Impact Assessments\Guinea Bissau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9154CF14-B13E-427E-9E4B-575881806742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AF484D-6B1E-4371-A995-628E92C56B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="186">
   <si>
     <t>type</t>
   </si>
@@ -255,12 +255,6 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>gw_oncho_202302_prestop_2_participant</t>
-  </si>
-  <si>
-    <t>(Fev 2023) ONCHO PreStop - 2. Participant Form</t>
-  </si>
-  <si>
     <t>Portugese</t>
   </si>
   <si>
@@ -565,6 +559,27 @@
   </si>
   <si>
     <t>Seleccione o Distrito</t>
+  </si>
+  <si>
+    <t>p_region</t>
+  </si>
+  <si>
+    <t>Select the region</t>
+  </si>
+  <si>
+    <t>Seleccione a região</t>
+  </si>
+  <si>
+    <t>(Fev 2023) ONCHO PreStop - 2. Participant Form V1.2</t>
+  </si>
+  <si>
+    <t>gw_oncho_202302_prestop_2_participant_v1_2</t>
+  </si>
+  <si>
+    <t>Select the other community</t>
+  </si>
+  <si>
+    <t>Seleccione a outra comunidade</t>
   </si>
 </sst>
 </file>
@@ -1000,13 +1015,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1040,10 +1055,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>4</v>
@@ -1055,7 +1070,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>7</v>
@@ -1093,10 +1108,10 @@
         <v>17</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="3" t="s">
@@ -1106,7 +1121,7 @@
         <v>19</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
@@ -1122,14 +1137,14 @@
         <v>21</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F3" s="12"/>
       <c r="I3" s="12"/>
@@ -1146,14 +1161,14 @@
         <v>21</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
-        <v>151</v>
+      <c r="E4" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="F4" s="12"/>
       <c r="I4" s="12"/>
@@ -1170,67 +1185,64 @@
         <v>21</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:17" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="F6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="M6" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:17" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -1244,190 +1256,180 @@
     </row>
     <row r="8" spans="1:17" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>85</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="12" t="s">
-        <v>87</v>
-      </c>
+      <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="47.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" t="s">
-        <v>174</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>90</v>
-      </c>
+    <row r="9" spans="1:17" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
       <c r="M9" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="47.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" t="s">
-        <v>175</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
     </row>
     <row r="11" spans="1:17" ht="47.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>172</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="12" spans="1:17" ht="47.25">
-      <c r="A12" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>92</v>
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>173</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="12"/>
+    <row r="13" spans="1:17" ht="47.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="14" spans="1:17" s="3" customFormat="1">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="H14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="Q13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="47.25">
+      <c r="A14" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="B14" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" s="18" t="s">
         <v>87</v>
       </c>
       <c r="M14" s="12" t="s">
@@ -1435,32 +1437,26 @@
       </c>
     </row>
     <row r="15" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="15" t="s">
-        <v>14</v>
+      <c r="A15" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>95</v>
+        <v>45</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>177</v>
-      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
       <c r="K15" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12" t="s">
@@ -1470,57 +1466,64 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1">
+    <row r="16" spans="1:17" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>96</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="H16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="K16" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="12"/>
+        <v>85</v>
+      </c>
       <c r="M16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
     </row>
     <row r="17" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>30</v>
+      <c r="A17" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="H17" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>175</v>
+      </c>
       <c r="K17" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12" t="s">
@@ -1531,26 +1534,26 @@
       <c r="P17" s="12"/>
     </row>
     <row r="18" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="15" t="s">
-        <v>107</v>
+      <c r="A18" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="18" t="s">
-        <v>136</v>
+      <c r="K18" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="L18" s="12"/>
       <c r="M18" s="12" t="s">
@@ -1561,26 +1564,26 @@
       <c r="P18" s="12"/>
     </row>
     <row r="19" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="15" t="s">
-        <v>135</v>
+      <c r="A19" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="18" t="s">
-        <v>137</v>
+      <c r="K19" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="L19" s="12"/>
       <c r="M19" s="12" t="s">
@@ -1592,17 +1595,17 @@
     </row>
     <row r="20" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -1610,7 +1613,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L20" s="12"/>
       <c r="M20" s="12" t="s">
@@ -1620,85 +1623,145 @@
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" t="s">
-        <v>168</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>87</v>
-      </c>
+    <row r="21" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="12"/>
       <c r="M21" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="3" t="s">
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>166</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>55</v>
       </c>
-      <c r="E22" t="s">
-        <v>169</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" t="s">
-        <v>170</v>
-      </c>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
+      <c r="E24" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>168</v>
+      </c>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
         <v>61</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>62</v>
       </c>
-      <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="1:16">
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:16">
       <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="M30" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1734,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>64</v>
@@ -1746,13 +1809,13 @@
         <v>65</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="10"/>
@@ -1762,13 +1825,13 @@
         <v>65</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="10"/>
@@ -1778,13 +1841,13 @@
         <v>68</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="10"/>
@@ -1794,13 +1857,13 @@
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
@@ -1839,304 +1902,304 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>66</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>106</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="10"/>
@@ -2314,13 +2377,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="46.125" customWidth="1"/>
-    <col min="2" max="2" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2336,13 +2399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="15" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/Impact Assessments/Guinea Bissau/gw_oncho_202302_prestop_2_participant.xlsx
+++ b/ONCHO/Impact Assessments/Guinea Bissau/gw_oncho_202302_prestop_2_participant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\ONCHO\Impact Assessments\Guinea Bissau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AF484D-6B1E-4371-A995-628E92C56B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BEAB97-9526-4346-AFE4-F8A59C27DA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="192">
   <si>
     <t>type</t>
   </si>
@@ -576,10 +576,28 @@
     <t>gw_oncho_202302_prestop_2_participant_v1_2</t>
   </si>
   <si>
+    <t>p_cluster_id2</t>
+  </si>
+  <si>
     <t>Select the other community</t>
   </si>
   <si>
     <t>Seleccione a outra comunidade</t>
+  </si>
+  <si>
+    <t>p_cluster_name2</t>
+  </si>
+  <si>
+    <t>Select the other community ID</t>
+  </si>
+  <si>
+    <t>Seleccionar o outro ID da comunidade</t>
+  </si>
+  <si>
+    <t>${p_cluster_name} != 'Other'</t>
+  </si>
+  <si>
+    <t>${p_cluster_name} = 'Other'</t>
   </si>
 </sst>
 </file>
@@ -1015,13 +1033,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1204,103 +1222,109 @@
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1">
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="31.5">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="F6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
+      <c r="K6" s="12" t="s">
+        <v>190</v>
+      </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-    </row>
-    <row r="7" spans="1:17" s="3" customFormat="1">
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="31.5">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="F7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="K7" s="12" t="s">
+        <v>191</v>
+      </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-    </row>
-    <row r="8" spans="1:17" s="3" customFormat="1">
+    </row>
+    <row r="8" spans="1:17" s="3" customFormat="1" ht="31.5">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="F8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="K8" s="12" t="s">
+        <v>191</v>
+      </c>
       <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="M8" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
@@ -1309,79 +1333,77 @@
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>83</v>
+      <c r="B10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="12" t="s">
-        <v>85</v>
-      </c>
+      <c r="K10" s="12"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="M10" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="47.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>154</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" t="s">
-        <v>172</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>20</v>
-      </c>
+    <row r="11" spans="1:17" s="3" customFormat="1">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
     </row>
     <row r="12" spans="1:17" ht="47.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K12" s="18" t="s">
         <v>88</v>
@@ -1395,163 +1417,162 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>173</v>
       </c>
       <c r="K13" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="L13" t="s">
-        <v>43</v>
-      </c>
       <c r="M13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="14" spans="1:17" ht="47.25">
-      <c r="A14" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>90</v>
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" s="12"/>
+      <c r="Q14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="47.25">
+      <c r="A15" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="M15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:17" s="3" customFormat="1">
+    </row>
+    <row r="16" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16" s="12"/>
-      <c r="H16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
       <c r="K16" s="12" t="s">
         <v>85</v>
       </c>
+      <c r="L16" s="12"/>
       <c r="M16" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" spans="1:16" s="3" customFormat="1">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>93</v>
+      <c r="B17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>175</v>
+      <c r="H17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="L17" s="12"/>
       <c r="M17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
     </row>
     <row r="18" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>30</v>
+      <c r="A18" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="H18" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>175</v>
+      </c>
       <c r="K18" s="12" t="s">
         <v>85</v>
       </c>
@@ -1568,14 +1589,14 @@
         <v>30</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -1594,26 +1615,26 @@
       <c r="P19" s="12"/>
     </row>
     <row r="20" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="15" t="s">
-        <v>105</v>
+      <c r="A20" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="18" t="s">
-        <v>134</v>
+      <c r="K20" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="L20" s="12"/>
       <c r="M20" s="12" t="s">
@@ -1625,17 +1646,17 @@
     </row>
     <row r="21" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -1643,7 +1664,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L21" s="12"/>
       <c r="M21" s="12" t="s">
@@ -1655,17 +1676,17 @@
     </row>
     <row r="22" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="15" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -1683,78 +1704,105 @@
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" t="s">
-        <v>166</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>85</v>
-      </c>
+    <row r="23" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="12"/>
       <c r="M23" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>55</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K25" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>168</v>
       </c>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>168</v>
       </c>
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
         <v>61</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>62</v>
       </c>
-      <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="1:16">
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:16">
@@ -1762,6 +1810,9 @@
     </row>
     <row r="30" spans="1:16">
       <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="M31" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ONCHO/Impact Assessments/Guinea Bissau/gw_oncho_202302_prestop_2_participant.xlsx
+++ b/ONCHO/Impact Assessments/Guinea Bissau/gw_oncho_202302_prestop_2_participant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\ONCHO\Impact Assessments\Guinea Bissau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BEAB97-9526-4346-AFE4-F8A59C27DA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48E1B70-9187-4AB0-90E8-AF518C665252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,20 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -153,9 +166,6 @@
     <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) adminstered</t>
   </si>
   <si>
-    <t>concat(${p_recorder_id}, '-', ${p_cluster_id}, '-', ${p_serial_number1})</t>
-  </si>
-  <si>
     <t>select_one sex</t>
   </si>
   <si>
@@ -598,6 +608,9 @@
   </si>
   <si>
     <t>${p_cluster_name} = 'Other'</t>
+  </si>
+  <si>
+    <t>if(${p_cluster_name} != 'Other', concat(${p_recorder_id}, '-', ${p_cluster_id}, '-', ${p_serial_number1}), concat(${p_recorder_id}, '-', ${p_cluster_id2}, '-', ${p_serial_number1}))</t>
   </si>
 </sst>
 </file>
@@ -1036,10 +1049,10 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1073,10 +1086,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>4</v>
@@ -1088,7 +1101,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>7</v>
@@ -1126,10 +1139,10 @@
         <v>17</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="3" t="s">
@@ -1139,7 +1152,7 @@
         <v>19</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
@@ -1155,14 +1168,14 @@
         <v>21</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>179</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>180</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F3" s="12"/>
       <c r="I3" s="12"/>
@@ -1182,11 +1195,11 @@
         <v>22</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F4" s="12"/>
       <c r="I4" s="12"/>
@@ -1210,7 +1223,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" s="12"/>
       <c r="I5" s="12"/>
@@ -1234,13 +1247,13 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12" t="s">
@@ -1255,20 +1268,20 @@
         <v>21</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12" t="s">
@@ -1282,20 +1295,20 @@
         <v>21</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12" t="s">
@@ -1317,7 +1330,7 @@
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9" s="12"/>
       <c r="I9" s="12"/>
@@ -1341,7 +1354,7 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -1361,21 +1374,21 @@
         <v>30</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -1394,7 +1407,7 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
@@ -1403,10 +1416,10 @@
         <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>20</v>
@@ -1423,7 +1436,7 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H13" t="s">
         <v>39</v>
@@ -1432,10 +1445,10 @@
         <v>40</v>
       </c>
       <c r="J13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>20</v>
@@ -1452,13 +1465,13 @@
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>20</v>
@@ -1469,19 +1482,19 @@
     </row>
     <row r="15" spans="1:17" ht="47.25">
       <c r="A15" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>90</v>
-      </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M15" s="12" t="s">
         <v>20</v>
@@ -1489,17 +1502,17 @@
     </row>
     <row r="16" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -1507,7 +1520,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12" t="s">
@@ -1522,27 +1535,27 @@
         <v>14</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17" s="12"/>
       <c r="H17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="J17" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>20</v>
@@ -1553,28 +1566,28 @@
         <v>14</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="J18" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L18" s="12"/>
       <c r="M18" s="12" t="s">
@@ -1589,14 +1602,14 @@
         <v>30</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -1604,7 +1617,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L19" s="12"/>
       <c r="M19" s="12" t="s">
@@ -1619,14 +1632,14 @@
         <v>30</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -1634,7 +1647,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L20" s="12"/>
       <c r="M20" s="12" t="s">
@@ -1646,17 +1659,17 @@
     </row>
     <row r="21" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>106</v>
-      </c>
       <c r="C21" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -1664,7 +1677,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L21" s="12"/>
       <c r="M21" s="12" t="s">
@@ -1676,17 +1689,17 @@
     </row>
     <row r="22" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -1694,7 +1707,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12" t="s">
@@ -1706,17 +1719,17 @@
     </row>
     <row r="23" spans="1:16" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -1724,7 +1737,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L23" s="12"/>
       <c r="M23" s="12" t="s">
@@ -1739,16 +1752,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
       <c r="E24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M24" s="12" t="s">
         <v>20</v>
@@ -1756,52 +1769,52 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
       <c r="E25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>57</v>
       </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
       <c r="E26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
         <v>59</v>
-      </c>
-      <c r="B27" t="s">
-        <v>60</v>
       </c>
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>62</v>
       </c>
       <c r="M28" s="12"/>
     </row>
@@ -1839,7 +1852,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1848,409 +1861,409 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="D4" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
         <v>71</v>
       </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>104</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="10"/>
@@ -2428,7 +2441,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2439,24 +2452,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
         <v>182</v>
       </c>
-      <c r="B2" t="s">
-        <v>183</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
